--- a/data/gsea/gsea_bp.xlsx
+++ b/data/gsea/gsea_bp.xlsx
@@ -432,16 +432,16 @@
         <v>0.5484955343939485</v>
       </c>
       <c r="E2">
-        <v>2.060147041707542</v>
+        <v>2.070734489342987</v>
       </c>
       <c r="F2">
-        <v>3.924547703293435e-06</v>
+        <v>6.953840742261809e-06</v>
       </c>
       <c r="G2">
-        <v>0.01209545602155037</v>
+        <v>0.02143173716765089</v>
       </c>
       <c r="H2">
-        <v>0.01177777421272588</v>
+        <v>0.02092008088566763</v>
       </c>
       <c r="I2">
         <v>1118</v>
